--- a/Planning_Urenverdeling/Urenverdeling Week 1.xlsx
+++ b/Planning_Urenverdeling/Urenverdeling Week 1.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\Group-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Documents\GitHub\Group-project\Planning_Urenverdeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,9 +71,6 @@
     <t>Bestede uren</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensoren met robot C programeren </t>
-  </si>
-  <si>
     <t>Totaal</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Opgeleverd</t>
   </si>
   <si>
-    <t>Minestorm robotje</t>
-  </si>
-  <si>
     <t xml:space="preserve">Groepsvergadering </t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>De robot laten stoppen bij een kruising</t>
   </si>
   <si>
-    <t xml:space="preserve">Bluethooth verbinden </t>
-  </si>
-  <si>
     <t xml:space="preserve">De robot geluid laten maken </t>
   </si>
   <si>
@@ -150,12 +141,21 @@
   </si>
   <si>
     <t>15 min.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensoren met robot C programmeren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluetooth verbinden </t>
+  </si>
+  <si>
+    <t>Mindstorm robotje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,6 +457,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,17 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -788,58 +788,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="14" width="11.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+    <row r="1" spans="1:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="9"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
+      <c r="K2" s="55"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:20" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -873,12 +873,12 @@
         <v>14</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -915,25 +915,25 @@
       <c r="L4" s="18"/>
       <c r="M4" s="19"/>
       <c r="N4" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="Q4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="R4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="S4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -973,22 +973,22 @@
         <v>42450</v>
       </c>
       <c r="O5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="R5" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1028,22 +1028,22 @@
         <v>42451</v>
       </c>
       <c r="O6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="Q6" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1083,22 +1083,22 @@
         <v>42452</v>
       </c>
       <c r="O7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="Q7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1134,26 +1134,26 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="54">
+      <c r="N8" s="43">
         <v>42453</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="Q8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>42450</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
         <v>1.5</v>
@@ -1188,8 +1188,8 @@
         <v>2</v>
       </c>
       <c r="L9" s="17"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="4"/>
@@ -1197,15 +1197,15 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49">
-        <v>1</v>
-      </c>
-      <c r="B10" s="48">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37">
         <v>42450</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10">
         <v>6.5</v>
@@ -1231,8 +1231,8 @@
       <c r="K10" s="3">
         <v>5.5</v>
       </c>
-      <c r="L10" s="49" t="s">
-        <v>26</v>
+      <c r="L10" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
@@ -1242,7 +1242,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>42451</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -1285,7 +1285,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>42451</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1328,7 +1328,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>42451</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1371,7 +1371,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>42451</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>1.5</v>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="49">
-        <v>1</v>
-      </c>
-      <c r="B15" s="48">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>1</v>
+      </c>
+      <c r="B15" s="37">
         <v>42451</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="10">
         <v>3.5</v>
@@ -1442,98 +1442,98 @@
         <v>5.5</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
-        <v>1</v>
-      </c>
-      <c r="B16" s="50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>1</v>
+      </c>
+      <c r="B16" s="39">
         <v>42452</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="46">
-        <v>1</v>
-      </c>
-      <c r="E16" s="47">
+      <c r="C16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="36">
         <v>2</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="35">
         <v>4</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="41">
         <v>4</v>
       </c>
       <c r="H16" s="19">
         <v>0</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="41">
         <v>0</v>
       </c>
       <c r="J16" s="19">
         <v>4</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="41">
         <v>4</v>
       </c>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
-        <v>1</v>
-      </c>
-      <c r="B17" s="45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34">
         <v>42452</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="46">
-        <v>3</v>
-      </c>
-      <c r="E17" s="47">
+        <v>40</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3</v>
+      </c>
+      <c r="E17" s="36">
         <v>4</v>
       </c>
-      <c r="F17" s="46">
-        <v>0</v>
-      </c>
-      <c r="G17" s="47">
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
         <v>0</v>
       </c>
       <c r="H17" s="19">
         <v>0</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="36">
         <v>0</v>
       </c>
       <c r="J17" s="19">
         <v>0</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="36">
         <v>0</v>
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
         <v>1</v>
       </c>
       <c r="B18" s="22">
         <v>42452</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="46">
+        <v>31</v>
+      </c>
+      <c r="D18" s="35">
         <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="35">
         <v>0</v>
       </c>
       <c r="G18" s="1">
@@ -1553,15 +1553,15 @@
       </c>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="49">
-        <v>1</v>
-      </c>
-      <c r="B19" s="48">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>1</v>
+      </c>
+      <c r="B19" s="37">
         <v>42452</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>16</v>
+      <c r="C19" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="11">
         <v>4</v>
@@ -1587,11 +1587,11 @@
       <c r="K19" s="12">
         <v>4</v>
       </c>
-      <c r="L19" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1599,15 +1599,15 @@
         <v>42453</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="46">
+        <v>32</v>
+      </c>
+      <c r="D20" s="35">
         <v>3</v>
       </c>
       <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="35">
         <v>0</v>
       </c>
       <c r="G20" s="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1635,15 +1635,15 @@
         <v>42453</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="46">
+        <v>33</v>
+      </c>
+      <c r="D21" s="35">
         <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="35">
         <v>0</v>
       </c>
       <c r="G21" s="1">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1671,15 +1671,15 @@
         <v>42453</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="46">
+        <v>30</v>
+      </c>
+      <c r="D22" s="35">
         <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="35">
         <v>3</v>
       </c>
       <c r="G22" s="1">
@@ -1699,15 +1699,15 @@
       </c>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49">
-        <v>1</v>
-      </c>
-      <c r="B23" s="48">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37">
         <v>42453</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>16</v>
+      <c r="C23" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="11">
         <v>4</v>
@@ -1733,11 +1733,11 @@
       <c r="K23" s="12">
         <v>3</v>
       </c>
-      <c r="L23" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L23" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -1750,7 +1750,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1765,7 +1765,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1780,7 +1780,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1795,7 +1795,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1810,7 +1810,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
